--- a/excels/SMX_libro.xlsx
+++ b/excels/SMX_libro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29423"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29421"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\MAD0EPF00000635\EXCELCNV\ce716ebb-cd7c-48da-b706-96d566cd20a8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59CFF0DD-7AED-45C7-B48B-2A6B0A7D5658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4965EF-03CC-44A8-8B6D-87A8C6C0B32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2848,28 +2848,40 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2881,50 +2893,38 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -3232,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="B51" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3249,7 +3249,7 @@
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="52"/>
@@ -3259,7 +3259,7 @@
       <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="52"/>
@@ -3272,15 +3272,15 @@
       <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="33" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3297,35 +3297,35 @@
       </c>
       <c r="I5" s="3">
         <f>SUM(I8:I200)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3341,10 +3341,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -3354,21 +3354,19 @@
         <v>20</v>
       </c>
       <c r="F10" s="6">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="6">
         <f>SUM(G11:G19)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="I10" s="6">
-        <v>2</v>
-      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="52"/>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
@@ -3460,7 +3458,7 @@
     <row r="17" spans="2:10" ht="30" customHeight="1">
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
-      <c r="D17" s="31"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="7" t="s">
         <v>27</v>
       </c>
@@ -3508,10 +3506,10 @@
       <c r="D20" s="52"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -3521,21 +3519,21 @@
         <v>20</v>
       </c>
       <c r="F21" s="6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G21" s="6">
         <f>SUM(G22:G30)</f>
         <v>100.00000000000001</v>
       </c>
       <c r="I21" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" s="52"/>
     </row>
     <row r="22" spans="2:10" ht="30" customHeight="1">
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="7" t="s">
         <v>31</v>
       </c>
@@ -3627,7 +3625,7 @@
     <row r="28" spans="2:10" ht="30" customHeight="1">
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
-      <c r="D28" s="31"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="7" t="s">
         <v>37</v>
       </c>
@@ -3636,6 +3634,9 @@
       </c>
       <c r="G28" s="8">
         <v>11.111111111111111</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
       </c>
       <c r="J28" s="52"/>
     </row>
@@ -3675,10 +3676,10 @@
       <c r="D31" s="52"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="26">
         <v>20</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -3688,21 +3689,19 @@
         <v>20</v>
       </c>
       <c r="F32" s="6">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G32" s="6">
         <f>SUM(G33:G45)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="I32" s="6">
-        <v>3</v>
-      </c>
+      <c r="I32" s="6"/>
       <c r="J32" s="52"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="31"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="7" t="s">
         <v>41</v>
       </c>
@@ -3824,7 +3823,7 @@
     <row r="41" spans="2:10" ht="30" customHeight="1">
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
-      <c r="D41" s="31"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="7" t="s">
         <v>49</v>
       </c>
@@ -3908,10 +3907,10 @@
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="26">
         <v>20</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -3921,21 +3920,19 @@
         <v>20</v>
       </c>
       <c r="F47" s="6">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G47" s="6">
         <f>SUM(G48:G57)</f>
         <v>100</v>
       </c>
-      <c r="I47" s="6">
-        <v>3</v>
-      </c>
+      <c r="I47" s="6"/>
       <c r="J47" s="52"/>
     </row>
     <row r="48" spans="2:10" ht="30" customHeight="1">
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="7" t="s">
         <v>56</v>
       </c>
@@ -4027,7 +4024,7 @@
     <row r="54" spans="2:10">
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="7" t="s">
         <v>62</v>
       </c>
@@ -4093,10 +4090,10 @@
       <c r="D58" s="52"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="26">
         <v>20</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -4106,21 +4103,21 @@
         <v>20</v>
       </c>
       <c r="F59" s="6">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G59" s="6">
         <f>SUM(G60:G64)</f>
         <v>100</v>
       </c>
       <c r="I59" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J59" s="52"/>
     </row>
     <row r="60" spans="2:10" ht="30" customHeight="1">
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
-      <c r="D60" s="31"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="7" t="s">
         <v>67</v>
       </c>
@@ -4177,12 +4174,15 @@
       <c r="G63" s="8">
         <v>20</v>
       </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
       <c r="J63" s="52"/>
     </row>
     <row r="64" spans="2:10" ht="30" customHeight="1">
       <c r="B64" s="52"/>
       <c r="C64" s="52"/>
-      <c r="D64" s="31"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="7" t="s">
         <v>71</v>
       </c>
@@ -4201,20 +4201,15 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C59:C65"/>
-    <mergeCell ref="B47:B58"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="C32:C46"/>
-    <mergeCell ref="C47:C58"/>
-    <mergeCell ref="B32:B46"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="J47:J57"/>
-    <mergeCell ref="J32:J45"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J21:J30"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C10:C20"/>
     <mergeCell ref="C1:E1"/>
@@ -4231,15 +4226,20 @@
     <mergeCell ref="D11:D15"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J21:J30"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C59:C65"/>
+    <mergeCell ref="B47:B58"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="B59:B65"/>
+    <mergeCell ref="C32:C46"/>
+    <mergeCell ref="C47:C58"/>
+    <mergeCell ref="B32:B46"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="J47:J57"/>
+    <mergeCell ref="J32:J45"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4266,7 +4266,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>547</v>
       </c>
       <c r="D1" s="52"/>
@@ -4276,7 +4276,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>548</v>
       </c>
       <c r="D2" s="52"/>
@@ -4289,15 +4289,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>365</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -4325,31 +4325,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4365,10 +4365,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -4395,7 +4395,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="27" t="s">
         <v>552</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -4413,7 +4413,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
-      <c r="D12" s="46"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="7" t="s">
         <v>554</v>
       </c>
@@ -4431,7 +4431,7 @@
     <row r="13" spans="2:10" ht="30.75">
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
-      <c r="D13" s="46"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="7" t="s">
         <v>556</v>
       </c>
@@ -4447,7 +4447,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="7" t="s">
         <v>557</v>
       </c>
@@ -4465,7 +4465,7 @@
     <row r="15" spans="2:10">
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
-      <c r="D15" s="46"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="7" t="s">
         <v>558</v>
       </c>
@@ -4501,7 +4501,7 @@
     <row r="17" spans="2:10" ht="30.75">
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="27" t="s">
         <v>560</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -4519,7 +4519,7 @@
     <row r="18" spans="2:10">
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
-      <c r="D18" s="46"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="7" t="s">
         <v>562</v>
       </c>
@@ -4537,7 +4537,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
-      <c r="D19" s="46"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="7" t="s">
         <v>563</v>
       </c>
@@ -4553,14 +4553,14 @@
     <row r="20" spans="2:10">
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
-      <c r="D20" s="46"/>
+      <c r="D20" s="50"/>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>30</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -4587,7 +4587,7 @@
     <row r="22" spans="2:10">
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="27" t="s">
         <v>565</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -4608,7 +4608,7 @@
     <row r="23" spans="2:10" ht="30.75">
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
-      <c r="D23" s="46"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="7" t="s">
         <v>567</v>
       </c>
@@ -4627,7 +4627,7 @@
     <row r="24" spans="2:10" ht="30.75">
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="7" t="s">
         <v>568</v>
       </c>
@@ -4648,7 +4648,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
-      <c r="D25" s="46"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="7" t="s">
         <v>569</v>
       </c>
@@ -4667,7 +4667,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="46"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="7" t="s">
         <v>570</v>
       </c>
@@ -4707,7 +4707,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="27" t="s">
         <v>572</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -4728,7 +4728,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="7" t="s">
         <v>574</v>
       </c>
@@ -4747,7 +4747,7 @@
     <row r="30" spans="2:10">
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="46"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="7" t="s">
         <v>575</v>
       </c>
@@ -4766,7 +4766,7 @@
     <row r="31" spans="2:10">
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="46"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="7" t="s">
         <v>576</v>
       </c>
@@ -4785,14 +4785,14 @@
     <row r="32" spans="2:10">
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
-      <c r="D32" s="46"/>
+      <c r="D32" s="50"/>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="27" t="s">
         <v>577</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="26">
         <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -4819,7 +4819,7 @@
     <row r="34" spans="2:10">
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="27" t="s">
         <v>578</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -4840,7 +4840,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
-      <c r="D35" s="46"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="7" t="s">
         <v>580</v>
       </c>
@@ -4861,7 +4861,7 @@
     <row r="36" spans="2:10">
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
-      <c r="D36" s="46"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="7" t="s">
         <v>581</v>
       </c>
@@ -4901,7 +4901,7 @@
     <row r="38" spans="2:10" ht="30.75">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="27" t="s">
         <v>583</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -4922,7 +4922,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="7" t="s">
         <v>585</v>
       </c>
@@ -4941,14 +4941,14 @@
     <row r="40" spans="2:10">
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
-      <c r="D40" s="46"/>
+      <c r="D40" s="50"/>
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="26">
         <v>15</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -4975,7 +4975,7 @@
     <row r="42" spans="2:10">
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="27" t="s">
         <v>587</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -4996,7 +4996,7 @@
     <row r="43" spans="2:10" ht="30.75">
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
-      <c r="D43" s="46"/>
+      <c r="D43" s="50"/>
       <c r="E43" s="7" t="s">
         <v>589</v>
       </c>
@@ -5015,7 +5015,7 @@
     <row r="44" spans="2:10" ht="30.75">
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="7" t="s">
         <v>590</v>
       </c>
@@ -5036,7 +5036,7 @@
     <row r="45" spans="2:10">
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
-      <c r="D45" s="46"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="7" t="s">
         <v>591</v>
       </c>
@@ -5076,7 +5076,7 @@
     <row r="47" spans="2:10">
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="27" t="s">
         <v>593</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -5097,7 +5097,7 @@
     <row r="48" spans="2:10">
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="46"/>
+      <c r="D48" s="50"/>
       <c r="E48" s="7" t="s">
         <v>595</v>
       </c>
@@ -5116,7 +5116,7 @@
     <row r="49" spans="2:10">
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
-      <c r="D49" s="46"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="7" t="s">
         <v>596</v>
       </c>
@@ -5135,14 +5135,14 @@
     <row r="50" spans="2:10">
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="50"/>
       <c r="H50" s="11"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="26">
         <v>5</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -5169,7 +5169,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="52"/>
       <c r="C52" s="52"/>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="27" t="s">
         <v>598</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -5191,7 +5191,7 @@
     <row r="53" spans="2:10">
       <c r="B53" s="52"/>
       <c r="C53" s="52"/>
-      <c r="D53" s="46"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="7" t="s">
         <v>600</v>
       </c>
@@ -5211,7 +5211,7 @@
     <row r="54" spans="2:10" ht="30.75">
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
-      <c r="D54" s="46"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="7" t="s">
         <v>601</v>
       </c>
@@ -5253,7 +5253,7 @@
     <row r="56" spans="2:10" ht="30.75">
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="27" t="s">
         <v>603</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -5275,7 +5275,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
-      <c r="D57" s="46"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="7" t="s">
         <v>605</v>
       </c>
@@ -5295,33 +5295,10 @@
     <row r="58" spans="2:10">
       <c r="B58" s="52"/>
       <c r="C58" s="52"/>
-      <c r="D58" s="46"/>
+      <c r="D58" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B21:B32"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="J33:J39"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="J51:J57"/>
-    <mergeCell ref="J21:J31"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="C41:C50"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="C21:C32"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J41:J49"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D56:D58"/>
     <mergeCell ref="E8:E9"/>
@@ -5338,6 +5315,29 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="D17:D20"/>
     <mergeCell ref="D38:D40"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J41:J49"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B21:B32"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="J33:J39"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="J51:J57"/>
+    <mergeCell ref="J21:J31"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="C41:C50"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="C21:C32"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="B33:B40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5364,7 +5364,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>606</v>
       </c>
       <c r="D1" s="52"/>
@@ -5374,7 +5374,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>607</v>
       </c>
       <c r="D2" s="52"/>
@@ -5387,15 +5387,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>284</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -5423,31 +5423,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5463,10 +5463,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>610</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -5490,7 +5490,7 @@
     <row r="11" spans="2:10" ht="30.75">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="27" t="s">
         <v>611</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -5504,7 +5504,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
-      <c r="D12" s="46"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="7" t="s">
         <v>613</v>
       </c>
@@ -5516,7 +5516,7 @@
     <row r="13" spans="2:10" ht="30.75">
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
-      <c r="D13" s="46"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="7" t="s">
         <v>614</v>
       </c>
@@ -5528,7 +5528,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="7" t="s">
         <v>615</v>
       </c>
@@ -5557,7 +5557,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="28" t="s">
         <v>617</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -5598,10 +5598,10 @@
       <c r="D19" s="52"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="27" t="s">
         <v>621</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="26">
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -5625,7 +5625,7 @@
     <row r="21" spans="2:10" ht="30.75">
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="28" t="s">
         <v>622</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -5692,7 +5692,7 @@
     <row r="26" spans="2:10" ht="30.75">
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="28" t="s">
         <v>617</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -5733,10 +5733,10 @@
       <c r="D29" s="52"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="27" t="s">
         <v>631</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="26">
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -5760,7 +5760,7 @@
     <row r="31" spans="2:10">
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="28" t="s">
         <v>611</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -5827,7 +5827,7 @@
     <row r="36" spans="2:10">
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="28" t="s">
         <v>637</v>
       </c>
       <c r="E36" s="7" t="s">
@@ -5856,10 +5856,10 @@
       <c r="D38" s="52"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="27" t="s">
         <v>640</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="26">
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -5883,7 +5883,7 @@
     <row r="40" spans="2:10" ht="30.75">
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="28" t="s">
         <v>641</v>
       </c>
       <c r="E40" s="7" t="s">
@@ -5947,7 +5947,7 @@
     <row r="45" spans="2:10" ht="30.75">
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="28" t="s">
         <v>637</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -5976,10 +5976,10 @@
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="27" t="s">
         <v>649</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="26">
         <v>18</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -6003,7 +6003,7 @@
     <row r="49" spans="2:10" ht="30.75">
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="28" t="s">
         <v>641</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -6088,7 +6088,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="52"/>
       <c r="C55" s="52"/>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="28" t="s">
         <v>637</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -6129,10 +6129,10 @@
       <c r="D58" s="52"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="27" t="s">
         <v>659</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="26">
         <v>10</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -6156,7 +6156,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="28" t="s">
         <v>641</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -6223,7 +6223,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="52"/>
       <c r="C65" s="52"/>
-      <c r="D65" s="31" t="s">
+      <c r="D65" s="28" t="s">
         <v>637</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -6252,10 +6252,10 @@
       <c r="D67" s="52"/>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="33" t="s">
+      <c r="B68" s="27" t="s">
         <v>667</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="26">
         <v>10</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -6279,7 +6279,7 @@
     <row r="69" spans="2:10">
       <c r="B69" s="52"/>
       <c r="C69" s="52"/>
-      <c r="D69" s="31" t="s">
+      <c r="D69" s="28" t="s">
         <v>668</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -6343,7 +6343,7 @@
     <row r="74" spans="2:10" ht="30.75">
       <c r="B74" s="52"/>
       <c r="C74" s="52"/>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="28" t="s">
         <v>637</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -6372,10 +6372,10 @@
       <c r="D76" s="52"/>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="27" t="s">
         <v>676</v>
       </c>
-      <c r="C77" s="29">
+      <c r="C77" s="26">
         <v>15</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -6399,7 +6399,7 @@
     <row r="78" spans="2:10" ht="30.75">
       <c r="B78" s="52"/>
       <c r="C78" s="52"/>
-      <c r="D78" s="31" t="s">
+      <c r="D78" s="28" t="s">
         <v>668</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -6478,7 +6478,7 @@
     <row r="84" spans="2:10">
       <c r="B84" s="52"/>
       <c r="C84" s="52"/>
-      <c r="D84" s="31" t="s">
+      <c r="D84" s="28" t="s">
         <v>637</v>
       </c>
       <c r="E84" s="7" t="s">
@@ -6532,15 +6532,35 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B77:B88"/>
-    <mergeCell ref="B30:B38"/>
-    <mergeCell ref="C48:C58"/>
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="C68:C76"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="B68:B76"/>
-    <mergeCell ref="C77:C88"/>
-    <mergeCell ref="B48:B58"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B39:B47"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C20:C29"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="J59:J66"/>
+    <mergeCell ref="J48:J57"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C39:C47"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J30:J37"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="C30:C38"/>
+    <mergeCell ref="J20:J28"/>
+    <mergeCell ref="D21:D24"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="D26:D29"/>
@@ -6557,35 +6577,15 @@
     <mergeCell ref="D65:D67"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D36:D38"/>
-    <mergeCell ref="J59:J66"/>
-    <mergeCell ref="J48:J57"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C39:C47"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J30:J37"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="C30:C38"/>
-    <mergeCell ref="J20:J28"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B39:B47"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C20:C29"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="B77:B88"/>
+    <mergeCell ref="B30:B38"/>
+    <mergeCell ref="C48:C58"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="C68:C76"/>
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="B68:B76"/>
+    <mergeCell ref="C77:C88"/>
+    <mergeCell ref="B48:B58"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6612,7 +6612,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>687</v>
       </c>
       <c r="D1" s="52"/>
@@ -6622,7 +6622,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>688</v>
       </c>
       <c r="D2" s="52"/>
@@ -6635,15 +6635,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -6671,31 +6671,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6711,10 +6711,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -6738,7 +6738,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>692</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -6844,7 +6844,7 @@
     <row r="17" spans="2:10" ht="30">
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="28" t="s">
         <v>699</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -6915,10 +6915,10 @@
       <c r="D21" s="52"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="27" t="s">
         <v>704</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="26">
         <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -6942,7 +6942,7 @@
     <row r="23" spans="2:10">
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="28" t="s">
         <v>705</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -7021,7 +7021,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="28" t="s">
         <v>699</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -7071,10 +7071,10 @@
       <c r="D31" s="52"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="27" t="s">
         <v>714</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="26">
         <v>20</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -7098,7 +7098,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="28" t="s">
         <v>715</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -7177,7 +7177,7 @@
     <row r="38" spans="2:10">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
-      <c r="D38" s="31" t="s">
+      <c r="D38" s="28" t="s">
         <v>699</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -7227,10 +7227,10 @@
       <c r="D41" s="52"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="27" t="s">
         <v>724</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="26">
         <v>20</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -7254,7 +7254,7 @@
     <row r="43" spans="2:10">
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="28" t="s">
         <v>725</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -7333,7 +7333,7 @@
     <row r="48" spans="2:10">
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="31" t="s">
+      <c r="D48" s="28" t="s">
         <v>731</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -7368,10 +7368,10 @@
       <c r="D50" s="52"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="27" t="s">
         <v>734</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="26">
         <v>20</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -7395,7 +7395,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="52"/>
       <c r="C52" s="52"/>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="28" t="s">
         <v>735</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -7474,7 +7474,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
-      <c r="D57" s="31" t="s">
+      <c r="D57" s="28" t="s">
         <v>740</v>
       </c>
       <c r="E57" s="7" t="s">
@@ -7510,6 +7510,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J32:J40"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="J22:J30"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C51:C59"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="J42:J49"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="B22:B31"/>
     <mergeCell ref="D28:D31"/>
@@ -7526,29 +7549,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D38:D41"/>
     <mergeCell ref="J10:J20"/>
-    <mergeCell ref="J32:J40"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="J22:J30"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C51:C59"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="J42:J49"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7575,7 +7575,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>743</v>
       </c>
       <c r="D1" s="52"/>
@@ -7585,7 +7585,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>744</v>
       </c>
       <c r="D2" s="52"/>
@@ -7598,15 +7598,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>127</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -7634,31 +7634,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7674,10 +7674,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>745</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D10" s="15" t="s">
@@ -7702,7 +7702,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="51" t="s">
         <v>746</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -7722,7 +7722,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
-      <c r="D12" s="48"/>
+      <c r="D12" s="51"/>
       <c r="E12" s="7" t="s">
         <v>748</v>
       </c>
@@ -7738,7 +7738,7 @@
     <row r="13" spans="2:10">
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
-      <c r="D13" s="48"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="7" t="s">
         <v>749</v>
       </c>
@@ -7754,7 +7754,7 @@
     <row r="14" spans="2:10">
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="48"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="7" t="s">
         <v>750</v>
       </c>
@@ -7772,7 +7772,7 @@
     <row r="15" spans="2:10">
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
-      <c r="D15" s="48"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="7" t="s">
         <v>751</v>
       </c>
@@ -7810,7 +7810,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="51" t="s">
         <v>753</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -7830,7 +7830,7 @@
     <row r="18" spans="2:10">
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
-      <c r="D18" s="48"/>
+      <c r="D18" s="51"/>
       <c r="E18" s="7" t="s">
         <v>755</v>
       </c>
@@ -7848,7 +7848,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
-      <c r="D19" s="48"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="7" t="s">
         <v>756</v>
       </c>
@@ -7866,14 +7866,14 @@
     <row r="20" spans="2:10">
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
-      <c r="D20" s="48"/>
+      <c r="D20" s="51"/>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="27" t="s">
         <v>757</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D21" s="15" t="s">
@@ -7898,7 +7898,7 @@
     <row r="22" spans="2:10">
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="51" t="s">
         <v>758</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -7916,7 +7916,7 @@
     <row r="23" spans="2:10">
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
-      <c r="D23" s="48"/>
+      <c r="D23" s="51"/>
       <c r="E23" s="7" t="s">
         <v>760</v>
       </c>
@@ -7934,7 +7934,7 @@
     <row r="24" spans="2:10">
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
-      <c r="D24" s="48"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="7" t="s">
         <v>761</v>
       </c>
@@ -7950,7 +7950,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
-      <c r="D25" s="48"/>
+      <c r="D25" s="51"/>
       <c r="E25" s="7" t="s">
         <v>762</v>
       </c>
@@ -7966,7 +7966,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="48"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="7" t="s">
         <v>763</v>
       </c>
@@ -8004,7 +8004,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="51" t="s">
         <v>765</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -8022,7 +8022,7 @@
     <row r="29" spans="2:10">
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
-      <c r="D29" s="48"/>
+      <c r="D29" s="51"/>
       <c r="E29" s="7" t="s">
         <v>767</v>
       </c>
@@ -8038,7 +8038,7 @@
     <row r="30" spans="2:10" ht="30.75">
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="48"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="7" t="s">
         <v>768</v>
       </c>
@@ -8054,14 +8054,14 @@
     <row r="31" spans="2:10">
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="48"/>
+      <c r="D31" s="51"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="27" t="s">
         <v>769</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -8086,7 +8086,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="51" t="s">
         <v>770</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -8106,7 +8106,7 @@
     <row r="34" spans="2:10">
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="48"/>
+      <c r="D34" s="51"/>
       <c r="E34" s="7" t="s">
         <v>772</v>
       </c>
@@ -8124,7 +8124,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="7" t="s">
         <v>773</v>
       </c>
@@ -8140,7 +8140,7 @@
     <row r="36" spans="2:10">
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
-      <c r="D36" s="48"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="7" t="s">
         <v>774</v>
       </c>
@@ -8156,7 +8156,7 @@
     <row r="37" spans="2:10">
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
-      <c r="D37" s="48"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="7" t="s">
         <v>775</v>
       </c>
@@ -8192,7 +8192,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="51" t="s">
         <v>765</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -8212,7 +8212,7 @@
     <row r="40" spans="2:10">
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
-      <c r="D40" s="48"/>
+      <c r="D40" s="51"/>
       <c r="E40" s="7" t="s">
         <v>778</v>
       </c>
@@ -8228,7 +8228,7 @@
     <row r="41" spans="2:10">
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
-      <c r="D41" s="48"/>
+      <c r="D41" s="51"/>
       <c r="E41" s="7" t="s">
         <v>779</v>
       </c>
@@ -8244,14 +8244,14 @@
     <row r="42" spans="2:10">
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
-      <c r="D42" s="48"/>
+      <c r="D42" s="51"/>
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="27" t="s">
         <v>780</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D43" s="15" t="s">
@@ -8276,7 +8276,7 @@
     <row r="44" spans="2:10">
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="51" t="s">
         <v>781</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -8293,7 +8293,7 @@
     <row r="45" spans="2:10">
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
-      <c r="D45" s="48"/>
+      <c r="D45" s="51"/>
       <c r="E45" s="7" t="s">
         <v>783</v>
       </c>
@@ -8308,7 +8308,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
-      <c r="D46" s="48"/>
+      <c r="D46" s="51"/>
       <c r="E46" s="7" t="s">
         <v>784</v>
       </c>
@@ -8323,7 +8323,7 @@
     <row r="47" spans="2:10">
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
-      <c r="D47" s="48"/>
+      <c r="D47" s="51"/>
       <c r="E47" s="7" t="s">
         <v>785</v>
       </c>
@@ -8338,7 +8338,7 @@
     <row r="48" spans="2:10" ht="30.75">
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="48"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="7" t="s">
         <v>786</v>
       </c>
@@ -8370,7 +8370,7 @@
     <row r="50" spans="2:10">
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="51" t="s">
         <v>765</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -8387,7 +8387,7 @@
     <row r="51" spans="2:10">
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
-      <c r="D51" s="48"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="7" t="s">
         <v>789</v>
       </c>
@@ -8402,7 +8402,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="52"/>
       <c r="C52" s="52"/>
-      <c r="D52" s="48"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="7" t="s">
         <v>790</v>
       </c>
@@ -8417,13 +8417,13 @@
     <row r="53" spans="2:10">
       <c r="B53" s="52"/>
       <c r="C53" s="52"/>
-      <c r="D53" s="48"/>
+      <c r="D53" s="51"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="33" t="s">
+      <c r="B54" s="27" t="s">
         <v>791</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D54" s="15" t="s">
@@ -8447,7 +8447,7 @@
     <row r="55" spans="2:10">
       <c r="B55" s="52"/>
       <c r="C55" s="52"/>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="51" t="s">
         <v>792</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -8464,7 +8464,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="48"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="7" t="s">
         <v>794</v>
       </c>
@@ -8479,7 +8479,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
-      <c r="D57" s="48"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="7" t="s">
         <v>795</v>
       </c>
@@ -8494,7 +8494,7 @@
     <row r="58" spans="2:10">
       <c r="B58" s="52"/>
       <c r="C58" s="52"/>
-      <c r="D58" s="48"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="7" t="s">
         <v>796</v>
       </c>
@@ -8526,7 +8526,7 @@
     <row r="60" spans="2:10" ht="30.75">
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="51" t="s">
         <v>765</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -8543,7 +8543,7 @@
     <row r="61" spans="2:10">
       <c r="B61" s="52"/>
       <c r="C61" s="52"/>
-      <c r="D61" s="48"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="7" t="s">
         <v>799</v>
       </c>
@@ -8558,7 +8558,7 @@
     <row r="62" spans="2:10">
       <c r="B62" s="52"/>
       <c r="C62" s="52"/>
-      <c r="D62" s="48"/>
+      <c r="D62" s="51"/>
       <c r="E62" s="7" t="s">
         <v>800</v>
       </c>
@@ -8573,13 +8573,13 @@
     <row r="63" spans="2:10">
       <c r="B63" s="52"/>
       <c r="C63" s="52"/>
-      <c r="D63" s="48"/>
+      <c r="D63" s="51"/>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="27" t="s">
         <v>801</v>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D64" s="15" t="s">
@@ -8603,7 +8603,7 @@
     <row r="65" spans="2:10">
       <c r="B65" s="52"/>
       <c r="C65" s="52"/>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="51" t="s">
         <v>792</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -8620,7 +8620,7 @@
     <row r="66" spans="2:10">
       <c r="B66" s="52"/>
       <c r="C66" s="52"/>
-      <c r="D66" s="48"/>
+      <c r="D66" s="51"/>
       <c r="E66" s="7" t="s">
         <v>803</v>
       </c>
@@ -8635,7 +8635,7 @@
     <row r="67" spans="2:10">
       <c r="B67" s="52"/>
       <c r="C67" s="52"/>
-      <c r="D67" s="48"/>
+      <c r="D67" s="51"/>
       <c r="E67" s="7" t="s">
         <v>804</v>
       </c>
@@ -8650,7 +8650,7 @@
     <row r="68" spans="2:10">
       <c r="B68" s="52"/>
       <c r="C68" s="52"/>
-      <c r="D68" s="48"/>
+      <c r="D68" s="51"/>
       <c r="E68" s="7" t="s">
         <v>805</v>
       </c>
@@ -8665,7 +8665,7 @@
     <row r="69" spans="2:10">
       <c r="B69" s="52"/>
       <c r="C69" s="52"/>
-      <c r="D69" s="48"/>
+      <c r="D69" s="51"/>
       <c r="E69" s="7" t="s">
         <v>806</v>
       </c>
@@ -8697,7 +8697,7 @@
     <row r="71" spans="2:10">
       <c r="B71" s="52"/>
       <c r="C71" s="52"/>
-      <c r="D71" s="48" t="s">
+      <c r="D71" s="51" t="s">
         <v>765</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -8714,7 +8714,7 @@
     <row r="72" spans="2:10" ht="30.75">
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
-      <c r="D72" s="48"/>
+      <c r="D72" s="51"/>
       <c r="E72" s="7" t="s">
         <v>809</v>
       </c>
@@ -8729,7 +8729,7 @@
     <row r="73" spans="2:10" ht="30.75">
       <c r="B73" s="52"/>
       <c r="C73" s="52"/>
-      <c r="D73" s="48"/>
+      <c r="D73" s="51"/>
       <c r="E73" s="7" t="s">
         <v>810</v>
       </c>
@@ -8744,7 +8744,7 @@
     <row r="74" spans="2:10">
       <c r="B74" s="52"/>
       <c r="C74" s="52"/>
-      <c r="D74" s="48"/>
+      <c r="D74" s="51"/>
       <c r="E74" s="7" t="s">
         <v>811</v>
       </c>
@@ -8759,10 +8759,38 @@
     <row r="75" spans="2:10">
       <c r="B75" s="52"/>
       <c r="C75" s="52"/>
-      <c r="D75" s="48"/>
+      <c r="D75" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B54:B63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="C43:C53"/>
+    <mergeCell ref="C32:C42"/>
+    <mergeCell ref="C54:C63"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C21:C31"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="J64:J74"/>
@@ -8779,34 +8807,6 @@
     <mergeCell ref="D33:D37"/>
     <mergeCell ref="D65:D69"/>
     <mergeCell ref="B32:B42"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C21:C31"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="C43:C53"/>
-    <mergeCell ref="C32:C42"/>
-    <mergeCell ref="C54:C63"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="B54:B63"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B10:B20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8834,7 +8834,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>812</v>
       </c>
       <c r="D1" s="52"/>
@@ -8844,7 +8844,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>813</v>
       </c>
       <c r="D2" s="52"/>
@@ -8857,15 +8857,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>284</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -8893,31 +8893,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -8928,15 +8928,15 @@
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="31"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>816</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -8961,7 +8961,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>817</v>
       </c>
@@ -9026,7 +9026,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
-      <c r="D16" s="31"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="7" t="s">
         <v>822</v>
       </c>
@@ -9065,10 +9065,10 @@
       <c r="D19" s="52"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="27" t="s">
         <v>825</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="26">
         <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -9093,7 +9093,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
-      <c r="D21" s="31"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="7" t="s">
         <v>826</v>
       </c>
@@ -9176,7 +9176,7 @@
     <row r="27" spans="2:10">
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
-      <c r="D27" s="31"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="7" t="s">
         <v>831</v>
       </c>
@@ -9236,10 +9236,10 @@
       <c r="D31" s="52"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="27" t="s">
         <v>835</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="26">
         <v>10</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -9267,7 +9267,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="31"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="7" t="s">
         <v>836</v>
       </c>
@@ -9335,7 +9335,7 @@
     <row r="38" spans="2:10">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
-      <c r="D38" s="31"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="7" t="s">
         <v>841</v>
       </c>
@@ -9368,10 +9368,10 @@
       <c r="D40" s="52"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="27" t="s">
         <v>843</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="26">
         <v>30</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -9399,7 +9399,7 @@
     <row r="42" spans="2:10">
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
-      <c r="D42" s="31"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="7" t="s">
         <v>844</v>
       </c>
@@ -9485,7 +9485,7 @@
     <row r="48" spans="2:10">
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="7" t="s">
         <v>850</v>
       </c>
@@ -9542,10 +9542,10 @@
       <c r="D52" s="52"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="33" t="s">
+      <c r="B53" s="27" t="s">
         <v>854</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="26">
         <v>30</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -9570,7 +9570,7 @@
     <row r="54" spans="2:10">
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="7" t="s">
         <v>855</v>
       </c>
@@ -9647,7 +9647,7 @@
     <row r="59" spans="2:10">
       <c r="B59" s="52"/>
       <c r="C59" s="52"/>
-      <c r="D59" s="31"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="7" t="s">
         <v>860</v>
       </c>
@@ -9689,10 +9689,10 @@
       <c r="D62" s="52"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="27" t="s">
         <v>863</v>
       </c>
-      <c r="C63" s="29">
+      <c r="C63" s="26">
         <v>10</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -9717,7 +9717,7 @@
     <row r="64" spans="2:10" ht="30.75">
       <c r="B64" s="52"/>
       <c r="C64" s="52"/>
-      <c r="D64" s="31"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="7" t="s">
         <v>355</v>
       </c>
@@ -9788,7 +9788,7 @@
     <row r="69" spans="2:10">
       <c r="B69" s="52"/>
       <c r="C69" s="52"/>
-      <c r="D69" s="31"/>
+      <c r="D69" s="28"/>
       <c r="E69" s="7" t="s">
         <v>360</v>
       </c>
@@ -9828,14 +9828,26 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="J32:J39"/>
-    <mergeCell ref="J10:J18"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="J53:J61"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C41:C52"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="D64:D67"/>
     <mergeCell ref="J63:J71"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F8:F9"/>
@@ -9852,26 +9864,14 @@
     <mergeCell ref="C63:C72"/>
     <mergeCell ref="C10:C19"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C41:C52"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C53:C62"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J32:J39"/>
+    <mergeCell ref="J10:J18"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="J53:J61"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9898,7 +9898,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>72</v>
       </c>
       <c r="D1" s="52"/>
@@ -9908,7 +9908,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="52"/>
@@ -9921,15 +9921,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>74</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -9957,31 +9957,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9997,10 +9997,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -10024,7 +10024,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -10088,7 +10088,7 @@
     <row r="15" spans="2:10">
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="28" t="s">
         <v>83</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -10123,10 +10123,10 @@
       <c r="D17" s="52"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="26">
         <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -10150,7 +10150,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="28" t="s">
         <v>87</v>
       </c>
       <c r="E19" s="7" t="s">
@@ -10214,7 +10214,7 @@
     <row r="23" spans="2:10">
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="28" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -10249,10 +10249,10 @@
       <c r="D25" s="52"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="26">
         <v>40</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -10276,7 +10276,7 @@
     <row r="27" spans="2:10">
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="28" t="s">
         <v>96</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -10340,7 +10340,7 @@
     <row r="31" spans="2:10" ht="30.75">
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="28" t="s">
         <v>101</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -10360,10 +10360,10 @@
       <c r="D32" s="52"/>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="26">
         <v>10</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -10387,7 +10387,7 @@
     <row r="34" spans="2:10">
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -10466,7 +10466,7 @@
     <row r="39" spans="2:10" ht="30.75">
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="31" t="s">
+      <c r="D39" s="28" t="s">
         <v>110</v>
       </c>
       <c r="E39" s="7" t="s">
@@ -10516,10 +10516,10 @@
       <c r="D42" s="52"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="26">
         <v>30</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -10543,7 +10543,7 @@
     <row r="44" spans="2:10">
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
-      <c r="D44" s="31" t="s">
+      <c r="D44" s="28" t="s">
         <v>115</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -10622,7 +10622,7 @@
     <row r="49" spans="2:10">
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="28" t="s">
         <v>121</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -10673,6 +10673,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="J18:J24"/>
+    <mergeCell ref="J33:J41"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C26:C32"/>
     <mergeCell ref="J43:J51"/>
     <mergeCell ref="B26:B32"/>
     <mergeCell ref="C8:C9"/>
@@ -10689,29 +10712,6 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="B33:B42"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="J33:J41"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C18:C25"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10738,21 +10738,21 @@
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="2:10" ht="18">
       <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -10761,15 +10761,15 @@
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="40" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -10778,8 +10778,8 @@
     </row>
     <row r="4" spans="2:10">
       <c r="E4" s="24"/>
-      <c r="F4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="F4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -10799,50 +10799,50 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -10864,14 +10864,14 @@
         <f>SUM(I11:I19)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="39" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="45" customHeight="1">
-      <c r="B11" s="34"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>130</v>
       </c>
@@ -10887,12 +10887,12 @@
       <c r="I11" s="14">
         <v>1</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="7" t="s">
         <v>131</v>
       </c>
@@ -10908,12 +10908,12 @@
       <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="35"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="2:10" ht="45" customHeight="1">
-      <c r="B13" s="34"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="7" t="s">
         <v>132</v>
       </c>
@@ -10929,12 +10929,12 @@
       <c r="I13" s="14">
         <v>0</v>
       </c>
-      <c r="J13" s="35"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="7" t="s">
         <v>133</v>
       </c>
@@ -10950,12 +10950,12 @@
       <c r="I14" s="14">
         <v>0</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="2:10" ht="15" customHeight="1">
-      <c r="B15" s="34"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="7" t="s">
         <v>134</v>
       </c>
@@ -10971,11 +10971,11 @@
       <c r="I15" s="14">
         <v>0</v>
       </c>
-      <c r="J15" s="35"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="2:10" ht="75" customHeight="1">
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="21" t="s">
         <v>9</v>
       </c>
@@ -10994,12 +10994,12 @@
       <c r="I16" s="14">
         <v>0</v>
       </c>
-      <c r="J16" s="35"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="2:10" ht="45" customHeight="1">
-      <c r="B17" s="34"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="7" t="s">
         <v>136</v>
       </c>
@@ -11015,12 +11015,12 @@
       <c r="I17" s="14">
         <v>0</v>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" ht="45" customHeight="1">
-      <c r="B18" s="34"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="7" t="s">
         <v>137</v>
       </c>
@@ -11036,12 +11036,12 @@
       <c r="I18" s="14">
         <v>0</v>
       </c>
-      <c r="J18" s="35"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:10" ht="30.75">
-      <c r="B19" s="34"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="7" t="s">
         <v>138</v>
       </c>
@@ -11057,12 +11057,12 @@
       <c r="I19" s="14">
         <v>0</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1">
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="12"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -11070,10 +11070,10 @@
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:10" ht="60" customHeight="1">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -11095,14 +11095,14 @@
         <f>SUM(I22:I24)</f>
         <v>3</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="39" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="45" customHeight="1">
-      <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="7" t="s">
         <v>141</v>
       </c>
@@ -11118,12 +11118,12 @@
       <c r="I22" s="14">
         <v>1</v>
       </c>
-      <c r="J22" s="35"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="2:10" ht="30" customHeight="1">
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="7" t="s">
         <v>143</v>
       </c>
@@ -11139,11 +11139,11 @@
       <c r="I23" s="14">
         <v>1</v>
       </c>
-      <c r="J23" s="35"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="2:10" ht="30" customHeight="1">
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="21" t="s">
         <v>9</v>
       </c>
@@ -11162,11 +11162,11 @@
       <c r="I24" s="14">
         <v>1</v>
       </c>
-      <c r="J24" s="35"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="34"/>
-      <c r="C25" s="33"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="14"/>
       <c r="E25" s="12"/>
       <c r="F25" s="14"/>
@@ -11175,10 +11175,10 @@
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D26" s="21" t="s">
@@ -11200,14 +11200,14 @@
         <f>SUM(I27:I33)</f>
         <v>3</v>
       </c>
-      <c r="J26" s="35" t="s">
+      <c r="J26" s="39" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="45" customHeight="1">
-      <c r="B27" s="34"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="7" t="s">
         <v>147</v>
       </c>
@@ -11223,12 +11223,12 @@
       <c r="I27" s="14">
         <v>1</v>
       </c>
-      <c r="J27" s="35"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1">
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="7" t="s">
         <v>148</v>
       </c>
@@ -11244,12 +11244,12 @@
       <c r="I28" s="14">
         <v>1</v>
       </c>
-      <c r="J28" s="35"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1">
-      <c r="B29" s="34"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="7" t="s">
         <v>149</v>
       </c>
@@ -11265,12 +11265,12 @@
       <c r="I29" s="14">
         <v>1</v>
       </c>
-      <c r="J29" s="35"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="7" t="s">
         <v>150</v>
       </c>
@@ -11286,11 +11286,11 @@
       <c r="I30" s="14">
         <v>0</v>
       </c>
-      <c r="J30" s="35"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="2:10" ht="30" customHeight="1">
-      <c r="B31" s="34"/>
-      <c r="C31" s="33"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="21" t="s">
         <v>9</v>
       </c>
@@ -11309,12 +11309,12 @@
       <c r="I31" s="14">
         <v>0</v>
       </c>
-      <c r="J31" s="35"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" spans="2:10" ht="30" customHeight="1">
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="7" t="s">
         <v>152</v>
       </c>
@@ -11330,12 +11330,12 @@
       <c r="I32" s="14">
         <v>0</v>
       </c>
-      <c r="J32" s="35"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="2:10" ht="30" customHeight="1">
-      <c r="B33" s="34"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="7" t="s">
         <v>153</v>
       </c>
@@ -11351,12 +11351,12 @@
       <c r="I33" s="14">
         <v>0</v>
       </c>
-      <c r="J33" s="35"/>
+      <c r="J33" s="39"/>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="E34" s="12"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -11364,10 +11364,10 @@
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D35" s="21" t="s">
@@ -11389,14 +11389,14 @@
         <f>SUM(I36:I46)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="39" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="30" customHeight="1">
-      <c r="B36" s="34"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="31"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="7" t="s">
         <v>156</v>
       </c>
@@ -11412,12 +11412,12 @@
       <c r="I36" s="14">
         <v>0</v>
       </c>
-      <c r="J36" s="35"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="2:10" ht="30" customHeight="1">
-      <c r="B37" s="34"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="7" t="s">
         <v>157</v>
       </c>
@@ -11433,12 +11433,12 @@
       <c r="I37" s="14">
         <v>0</v>
       </c>
-      <c r="J37" s="35"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="34"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="7" t="s">
         <v>158</v>
       </c>
@@ -11454,12 +11454,12 @@
       <c r="I38" s="14">
         <v>0</v>
       </c>
-      <c r="J38" s="35"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1">
-      <c r="B39" s="34"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="E39" s="7" t="s">
         <v>159</v>
       </c>
@@ -11475,12 +11475,12 @@
       <c r="I39" s="14">
         <v>0</v>
       </c>
-      <c r="J39" s="35"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="34"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="7" t="s">
         <v>160</v>
       </c>
@@ -11496,12 +11496,12 @@
       <c r="I40" s="14">
         <v>0</v>
       </c>
-      <c r="J40" s="35"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="2:10" ht="30" customHeight="1">
-      <c r="B41" s="34"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="7" t="s">
         <v>161</v>
       </c>
@@ -11517,11 +11517,11 @@
       <c r="I41" s="14">
         <v>0</v>
       </c>
-      <c r="J41" s="35"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="2:10" ht="30" customHeight="1">
-      <c r="B42" s="34"/>
-      <c r="C42" s="33"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="21" t="s">
         <v>9</v>
       </c>
@@ -11540,12 +11540,12 @@
       <c r="I42" s="14">
         <v>1</v>
       </c>
-      <c r="J42" s="35"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="34"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="31"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="7" t="s">
         <v>163</v>
       </c>
@@ -11561,12 +11561,12 @@
       <c r="I43" s="14">
         <v>0</v>
       </c>
-      <c r="J43" s="35"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="2:10" ht="30" customHeight="1">
-      <c r="B44" s="34"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
       <c r="E44" s="7" t="s">
         <v>164</v>
       </c>
@@ -11582,12 +11582,12 @@
       <c r="I44" s="14">
         <v>0</v>
       </c>
-      <c r="J44" s="35"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="2:10" ht="30" customHeight="1">
-      <c r="B45" s="34"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="E45" s="7" t="s">
         <v>165</v>
       </c>
@@ -11603,12 +11603,12 @@
       <c r="I45" s="14">
         <v>0</v>
       </c>
-      <c r="J45" s="35"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="2:10" ht="30" customHeight="1">
-      <c r="B46" s="34"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="7" t="s">
         <v>166</v>
       </c>
@@ -11624,12 +11624,12 @@
       <c r="I46" s="14">
         <v>0</v>
       </c>
-      <c r="J46" s="35"/>
+      <c r="J46" s="39"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="34"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="12"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
@@ -11637,10 +11637,10 @@
       <c r="I47" s="14"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1">
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D48" s="21" t="s">
@@ -11662,14 +11662,14 @@
         <f>SUM(I49:I57)</f>
         <v>2</v>
       </c>
-      <c r="J48" s="35" t="s">
+      <c r="J48" s="39" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="30" customHeight="1">
-      <c r="B49" s="34"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="31"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
       <c r="E49" s="7" t="s">
         <v>169</v>
       </c>
@@ -11685,12 +11685,12 @@
       <c r="I49" s="14">
         <v>0</v>
       </c>
-      <c r="J49" s="35"/>
+      <c r="J49" s="39"/>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="34"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="7" t="s">
         <v>170</v>
       </c>
@@ -11706,12 +11706,12 @@
       <c r="I50" s="14">
         <v>0</v>
       </c>
-      <c r="J50" s="35"/>
+      <c r="J50" s="39"/>
     </row>
     <row r="51" spans="2:10" ht="30" customHeight="1">
-      <c r="B51" s="34"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
       <c r="E51" s="7" t="s">
         <v>171</v>
       </c>
@@ -11727,12 +11727,12 @@
       <c r="I51" s="14">
         <v>0</v>
       </c>
-      <c r="J51" s="35"/>
+      <c r="J51" s="39"/>
     </row>
     <row r="52" spans="2:10" ht="30" customHeight="1">
-      <c r="B52" s="34"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="7" t="s">
         <v>172</v>
       </c>
@@ -11748,12 +11748,12 @@
       <c r="I52" s="14">
         <v>0</v>
       </c>
-      <c r="J52" s="35"/>
+      <c r="J52" s="39"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="34"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="7" t="s">
         <v>173</v>
       </c>
@@ -11769,11 +11769,11 @@
       <c r="I53" s="14">
         <v>0</v>
       </c>
-      <c r="J53" s="35"/>
+      <c r="J53" s="39"/>
     </row>
     <row r="54" spans="2:10" ht="30" customHeight="1">
-      <c r="B54" s="34"/>
-      <c r="C54" s="33"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="21" t="s">
         <v>9</v>
       </c>
@@ -11792,12 +11792,12 @@
       <c r="I54" s="14">
         <v>0</v>
       </c>
-      <c r="J54" s="35"/>
+      <c r="J54" s="39"/>
     </row>
     <row r="55" spans="2:10" ht="30" customHeight="1">
-      <c r="B55" s="34"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="31"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
       <c r="E55" s="7" t="s">
         <v>175</v>
       </c>
@@ -11813,12 +11813,12 @@
       <c r="I55" s="14">
         <v>1</v>
       </c>
-      <c r="J55" s="35"/>
+      <c r="J55" s="39"/>
     </row>
     <row r="56" spans="2:10" ht="30" customHeight="1">
-      <c r="B56" s="34"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="7" t="s">
         <v>176</v>
       </c>
@@ -11834,12 +11834,12 @@
       <c r="I56" s="14">
         <v>1</v>
       </c>
-      <c r="J56" s="35"/>
+      <c r="J56" s="39"/>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="34"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="7" t="s">
         <v>177</v>
       </c>
@@ -11855,12 +11855,12 @@
       <c r="I57" s="14">
         <v>0</v>
       </c>
-      <c r="J57" s="35"/>
+      <c r="J57" s="39"/>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="34"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="12"/>
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
@@ -11868,10 +11868,10 @@
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D59" s="21" t="s">
@@ -11893,14 +11893,14 @@
         <f>SUM(I60:I66)</f>
         <v>0</v>
       </c>
-      <c r="J59" s="35" t="s">
+      <c r="J59" s="39" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="30.75">
-      <c r="B60" s="34"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="31"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="7" t="s">
         <v>180</v>
       </c>
@@ -11916,12 +11916,12 @@
       <c r="I60" s="14">
         <v>0</v>
       </c>
-      <c r="J60" s="35"/>
+      <c r="J60" s="39"/>
     </row>
     <row r="61" spans="2:10" ht="45.75">
-      <c r="B61" s="34"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="7" t="s">
         <v>181</v>
       </c>
@@ -11937,12 +11937,12 @@
       <c r="I61" s="14">
         <v>0</v>
       </c>
-      <c r="J61" s="35"/>
+      <c r="J61" s="39"/>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="34"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="7" t="s">
         <v>182</v>
       </c>
@@ -11958,12 +11958,12 @@
       <c r="I62" s="14">
         <v>0</v>
       </c>
-      <c r="J62" s="35"/>
+      <c r="J62" s="39"/>
     </row>
     <row r="63" spans="2:10" ht="45.75">
-      <c r="B63" s="34"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="7" t="s">
         <v>183</v>
       </c>
@@ -11979,11 +11979,11 @@
       <c r="I63" s="14">
         <v>0</v>
       </c>
-      <c r="J63" s="35"/>
+      <c r="J63" s="39"/>
     </row>
     <row r="64" spans="2:10" ht="45.75">
-      <c r="B64" s="34"/>
-      <c r="C64" s="33"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="21" t="s">
         <v>9</v>
       </c>
@@ -12002,12 +12002,12 @@
       <c r="I64" s="14">
         <v>0</v>
       </c>
-      <c r="J64" s="35"/>
+      <c r="J64" s="39"/>
     </row>
     <row r="65" spans="2:10" ht="45.75">
-      <c r="B65" s="34"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="31"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
       <c r="E65" s="7" t="s">
         <v>185</v>
       </c>
@@ -12023,12 +12023,12 @@
       <c r="I65" s="14">
         <v>0</v>
       </c>
-      <c r="J65" s="35"/>
+      <c r="J65" s="39"/>
     </row>
     <row r="66" spans="2:10" ht="30.75">
-      <c r="B66" s="34"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
       <c r="E66" s="7" t="s">
         <v>186</v>
       </c>
@@ -12044,16 +12044,43 @@
       <c r="I66" s="14">
         <v>0</v>
       </c>
-      <c r="J66" s="35"/>
+      <c r="J66" s="39"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="34"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B59:B67"/>
+    <mergeCell ref="C59:C67"/>
+    <mergeCell ref="J59:J66"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C35:C47"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J35:J46"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D43:D47"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B48:B58"/>
     <mergeCell ref="D36:D41"/>
@@ -12070,33 +12097,6 @@
     <mergeCell ref="J26:J33"/>
     <mergeCell ref="B35:B47"/>
     <mergeCell ref="D55:D58"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C35:C47"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="J35:J46"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="C59:C67"/>
-    <mergeCell ref="J59:J66"/>
-    <mergeCell ref="D60:D63"/>
-    <mergeCell ref="D65:D67"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -12123,21 +12123,21 @@
       <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="2:10" ht="18">
       <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="J2" t="s">
         <v>4</v>
       </c>
@@ -12146,15 +12146,15 @@
       <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="42" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -12162,8 +12162,8 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="F4" s="42"/>
-      <c r="I4" s="45"/>
+      <c r="F4" s="48"/>
+      <c r="I4" s="44"/>
       <c r="J4" t="s">
         <v>9</v>
       </c>
@@ -12187,50 +12187,50 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="36"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D10" s="21" t="s">
@@ -12251,14 +12251,14 @@
         <f>SUM(I11:I14)</f>
         <v>10</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="39" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="30" customHeight="1">
-      <c r="B11" s="34"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>192</v>
       </c>
@@ -12274,12 +12274,12 @@
       <c r="I11" s="11">
         <v>4</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="2:10" ht="30" customHeight="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="7" t="s">
         <v>193</v>
       </c>
@@ -12295,11 +12295,11 @@
       <c r="I12" s="11">
         <v>2</v>
       </c>
-      <c r="J12" s="35"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="2:10" ht="30" customHeight="1">
-      <c r="B13" s="34"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="21" t="s">
         <v>9</v>
       </c>
@@ -12318,12 +12318,12 @@
       <c r="I13" s="11">
         <v>2</v>
       </c>
-      <c r="J13" s="35"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="2:10" ht="30" customHeight="1">
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="7" t="s">
         <v>195</v>
       </c>
@@ -12339,22 +12339,22 @@
       <c r="I14" s="11">
         <v>2</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="34"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="2:10" ht="15" customHeight="1">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -12376,14 +12376,14 @@
         <f>SUM(I17:I23)</f>
         <v>12</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="47" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1">
-      <c r="B17" s="34"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="7" t="s">
         <v>198</v>
       </c>
@@ -12399,12 +12399,12 @@
       <c r="I17" s="11">
         <v>2</v>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="2:10" ht="60" customHeight="1">
-      <c r="B18" s="34"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="7" t="s">
         <v>199</v>
       </c>
@@ -12420,12 +12420,12 @@
       <c r="I18" s="11">
         <v>2</v>
       </c>
-      <c r="J18" s="43"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="2:10" ht="60" customHeight="1">
-      <c r="B19" s="34"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="7" t="s">
         <v>200</v>
       </c>
@@ -12441,12 +12441,12 @@
       <c r="I19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="43"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="2:10" ht="30" customHeight="1">
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="7" t="s">
         <v>201</v>
       </c>
@@ -12462,11 +12462,11 @@
       <c r="I20" s="11">
         <v>2</v>
       </c>
-      <c r="J20" s="43"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="2:10" ht="30" customHeight="1">
-      <c r="B21" s="34"/>
-      <c r="C21" s="33"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="21" t="s">
         <v>9</v>
       </c>
@@ -12485,12 +12485,12 @@
       <c r="I21" s="11">
         <v>2</v>
       </c>
-      <c r="J21" s="43"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="2:10" ht="30" customHeight="1">
-      <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="31"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="7" t="s">
         <v>203</v>
       </c>
@@ -12506,12 +12506,12 @@
       <c r="I22" s="11">
         <v>1</v>
       </c>
-      <c r="J22" s="43"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="2:10" ht="45" customHeight="1">
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="7" t="s">
         <v>204</v>
       </c>
@@ -12527,22 +12527,22 @@
       <c r="I23" s="11">
         <v>1</v>
       </c>
-      <c r="J23" s="43"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D25" s="21" t="s">
@@ -12564,14 +12564,14 @@
         <f>SUM(I26:I31)</f>
         <v>18</v>
       </c>
-      <c r="J25" s="43" t="s">
+      <c r="J25" s="47" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="30" customHeight="1">
-      <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="31"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="7" t="s">
         <v>207</v>
       </c>
@@ -12587,12 +12587,12 @@
       <c r="I26" s="11">
         <v>3</v>
       </c>
-      <c r="J26" s="43"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="2:10" ht="30" customHeight="1">
-      <c r="B27" s="34"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="7" t="s">
         <v>208</v>
       </c>
@@ -12608,12 +12608,12 @@
       <c r="I27" s="11">
         <v>3</v>
       </c>
-      <c r="J27" s="43"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="2:10" ht="30" customHeight="1">
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="7" t="s">
         <v>209</v>
       </c>
@@ -12629,11 +12629,11 @@
       <c r="I28" s="11">
         <v>3</v>
       </c>
-      <c r="J28" s="43"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="2:10" ht="30" customHeight="1">
-      <c r="B29" s="34"/>
-      <c r="C29" s="33"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="21" t="s">
         <v>9</v>
       </c>
@@ -12652,12 +12652,12 @@
       <c r="I29" s="11">
         <v>3</v>
       </c>
-      <c r="J29" s="43"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="2:10" ht="30" customHeight="1">
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="31"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="7" t="s">
         <v>211</v>
       </c>
@@ -12673,12 +12673,12 @@
       <c r="I30" s="11">
         <v>3</v>
       </c>
-      <c r="J30" s="43"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="2:10" ht="45" customHeight="1">
-      <c r="B31" s="34"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="7" t="s">
         <v>212</v>
       </c>
@@ -12694,22 +12694,22 @@
       <c r="I31" s="11">
         <v>3</v>
       </c>
-      <c r="J31" s="43"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1">
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D33" s="21" t="s">
@@ -12731,14 +12731,14 @@
         <f>SUM(I34:I42)</f>
         <v>0</v>
       </c>
-      <c r="J33" s="35" t="s">
+      <c r="J33" s="39" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="30" customHeight="1">
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="7" t="s">
         <v>215</v>
       </c>
@@ -12754,12 +12754,12 @@
       <c r="I34" s="11">
         <v>0</v>
       </c>
-      <c r="J34" s="35"/>
+      <c r="J34" s="39"/>
     </row>
     <row r="35" spans="2:10" ht="30" customHeight="1">
-      <c r="B35" s="34"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
       <c r="E35" s="7" t="s">
         <v>216</v>
       </c>
@@ -12775,12 +12775,12 @@
       <c r="I35" s="11">
         <v>0</v>
       </c>
-      <c r="J35" s="35"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="34"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="7" t="s">
         <v>217</v>
       </c>
@@ -12796,12 +12796,12 @@
       <c r="I36" s="11">
         <v>0</v>
       </c>
-      <c r="J36" s="35"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="2:10" ht="30" customHeight="1">
-      <c r="B37" s="34"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
       <c r="E37" s="7" t="s">
         <v>218</v>
       </c>
@@ -12817,12 +12817,12 @@
       <c r="I37" s="11">
         <v>0</v>
       </c>
-      <c r="J37" s="35"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="2:10" ht="45" customHeight="1">
-      <c r="B38" s="34"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="7" t="s">
         <v>219</v>
       </c>
@@ -12838,11 +12838,11 @@
       <c r="I38" s="11">
         <v>0</v>
       </c>
-      <c r="J38" s="35"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="2:10" ht="30" customHeight="1">
-      <c r="B39" s="34"/>
-      <c r="C39" s="33"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="21" t="s">
         <v>9</v>
       </c>
@@ -12861,12 +12861,12 @@
       <c r="I39" s="11">
         <v>0</v>
       </c>
-      <c r="J39" s="35"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="2:10" ht="30" customHeight="1">
-      <c r="B40" s="34"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="31"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="7" t="s">
         <v>221</v>
       </c>
@@ -12882,12 +12882,12 @@
       <c r="I40" s="11">
         <v>0</v>
       </c>
-      <c r="J40" s="35"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="2:10" ht="30" customHeight="1">
-      <c r="B41" s="34"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="7" t="s">
         <v>222</v>
       </c>
@@ -12903,12 +12903,12 @@
       <c r="I41" s="11">
         <v>0</v>
       </c>
-      <c r="J41" s="35"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="2:10" ht="30" customHeight="1">
-      <c r="B42" s="34"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
       <c r="E42" s="7" t="s">
         <v>223</v>
       </c>
@@ -12924,22 +12924,22 @@
       <c r="I42" s="11">
         <v>0</v>
       </c>
-      <c r="J42" s="35"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="34"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D44" s="21" t="s">
@@ -12961,14 +12961,14 @@
         <f>SUM(I45:I53)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="43" t="s">
+      <c r="J44" s="47" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="34"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="31"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="7" t="s">
         <v>226</v>
       </c>
@@ -12984,12 +12984,12 @@
       <c r="I45" s="11">
         <v>0</v>
       </c>
-      <c r="J45" s="43"/>
+      <c r="J45" s="47"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="34"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
       <c r="E46" s="7" t="s">
         <v>227</v>
       </c>
@@ -13005,12 +13005,12 @@
       <c r="I46" s="11">
         <v>0</v>
       </c>
-      <c r="J46" s="43"/>
+      <c r="J46" s="47"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="34"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="7" t="s">
         <v>228</v>
       </c>
@@ -13026,12 +13026,12 @@
       <c r="I47" s="11">
         <v>0</v>
       </c>
-      <c r="J47" s="43"/>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="2:10" ht="30" customHeight="1">
-      <c r="B48" s="34"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="7" t="s">
         <v>229</v>
       </c>
@@ -13047,12 +13047,12 @@
       <c r="I48" s="11">
         <v>0</v>
       </c>
-      <c r="J48" s="43"/>
+      <c r="J48" s="47"/>
     </row>
     <row r="49" spans="2:10" ht="30" customHeight="1">
-      <c r="B49" s="34"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
       <c r="E49" s="7" t="s">
         <v>230</v>
       </c>
@@ -13068,11 +13068,11 @@
       <c r="I49" s="11">
         <v>0</v>
       </c>
-      <c r="J49" s="43"/>
+      <c r="J49" s="47"/>
     </row>
     <row r="50" spans="2:10" ht="30" customHeight="1">
-      <c r="B50" s="34"/>
-      <c r="C50" s="33"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="21" t="s">
         <v>9</v>
       </c>
@@ -13091,12 +13091,12 @@
       <c r="I50" s="11">
         <v>0</v>
       </c>
-      <c r="J50" s="43"/>
+      <c r="J50" s="47"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="34"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="31"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
       <c r="E51" s="7" t="s">
         <v>232</v>
       </c>
@@ -13112,12 +13112,12 @@
       <c r="I51" s="11">
         <v>0</v>
       </c>
-      <c r="J51" s="43"/>
+      <c r="J51" s="47"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="34"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="7" t="s">
         <v>233</v>
       </c>
@@ -13133,12 +13133,12 @@
       <c r="I52" s="11">
         <v>0</v>
       </c>
-      <c r="J52" s="43"/>
+      <c r="J52" s="47"/>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="34"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="7" t="s">
         <v>234</v>
       </c>
@@ -13154,22 +13154,22 @@
       <c r="I53" s="11">
         <v>0</v>
       </c>
-      <c r="J53" s="43"/>
+      <c r="J53" s="47"/>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="34"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="26">
         <v>16.6666666666667</v>
       </c>
       <c r="D55" s="21" t="s">
@@ -13191,14 +13191,14 @@
         <f>SUM(I56:I59)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="35" t="s">
+      <c r="J55" s="39" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="30.75">
-      <c r="B56" s="34"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="31"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="7" t="s">
         <v>237</v>
       </c>
@@ -13214,12 +13214,12 @@
       <c r="I56" s="11">
         <v>0</v>
       </c>
-      <c r="J56" s="35"/>
+      <c r="J56" s="39"/>
     </row>
     <row r="57" spans="2:10" ht="45.75">
-      <c r="B57" s="34"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="7" t="s">
         <v>238</v>
       </c>
@@ -13235,11 +13235,11 @@
       <c r="I57" s="11">
         <v>0</v>
       </c>
-      <c r="J57" s="35"/>
+      <c r="J57" s="39"/>
     </row>
     <row r="58" spans="2:10" ht="30.75">
-      <c r="B58" s="34"/>
-      <c r="C58" s="33"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="21" t="s">
         <v>9</v>
       </c>
@@ -13258,12 +13258,12 @@
       <c r="I58" s="11">
         <v>0</v>
       </c>
-      <c r="J58" s="35"/>
+      <c r="J58" s="39"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="34"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="31"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
       <c r="E59" s="7" t="s">
         <v>240</v>
       </c>
@@ -13279,15 +13279,43 @@
       <c r="I59" s="11">
         <v>0</v>
       </c>
-      <c r="J59" s="35"/>
+      <c r="J59" s="39"/>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="34"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="J55:J59"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C16:C24"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="J33:J42"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="J25:J31"/>
+    <mergeCell ref="J44:J53"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="J10:J14"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J16:J23"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B44:B54"/>
@@ -13304,34 +13332,6 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="C33:C43"/>
     <mergeCell ref="D45:D49"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="J33:J42"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C44:C54"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="J25:J31"/>
-    <mergeCell ref="J44:J53"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="J10:J14"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J16:J23"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C16:C24"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="J55:J59"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D59:D60"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -13358,7 +13358,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>241</v>
       </c>
       <c r="D1" s="52"/>
@@ -13368,7 +13368,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>242</v>
       </c>
       <c r="D2" s="52"/>
@@ -13381,15 +13381,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>243</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -13417,31 +13417,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -13457,10 +13457,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10" ht="15" customHeight="1">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -13486,7 +13486,7 @@
     <row r="11" spans="2:10" ht="30" customHeight="1">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>246</v>
       </c>
@@ -13548,7 +13548,7 @@
     <row r="15" spans="2:10" ht="45" customHeight="1">
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
-      <c r="D15" s="31"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="7" t="s">
         <v>250</v>
       </c>
@@ -13581,10 +13581,10 @@
       <c r="D17" s="52"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -13610,7 +13610,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
-      <c r="D19" s="31"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="7" t="s">
         <v>253</v>
       </c>
@@ -13672,7 +13672,7 @@
     <row r="23" spans="2:10" ht="30" customHeight="1">
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
-      <c r="D23" s="31"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="7" t="s">
         <v>257</v>
       </c>
@@ -13690,10 +13690,10 @@
       <c r="D24" s="52"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -13719,7 +13719,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="31"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="7" t="s">
         <v>259</v>
       </c>
@@ -13778,10 +13778,10 @@
       <c r="D29" s="14"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -13807,7 +13807,7 @@
     <row r="31" spans="2:10">
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="31"/>
+      <c r="D31" s="28"/>
       <c r="E31" s="7" t="s">
         <v>263</v>
       </c>
@@ -13881,7 +13881,7 @@
     <row r="35" spans="2:10">
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
-      <c r="D35" s="31"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="7" t="s">
         <v>267</v>
       </c>
@@ -13920,10 +13920,10 @@
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1">
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -13949,7 +13949,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="31"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="7" t="s">
         <v>263</v>
       </c>
@@ -14041,7 +14041,7 @@
     <row r="45" spans="2:10">
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
-      <c r="D45" s="31"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="7" t="s">
         <v>273</v>
       </c>
@@ -14092,10 +14092,10 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="26">
         <v>16.666666666666671</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -14121,7 +14121,7 @@
     <row r="50" spans="2:10">
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
-      <c r="D50" s="31"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="7" t="s">
         <v>277</v>
       </c>
@@ -14195,7 +14195,7 @@
     <row r="54" spans="2:10">
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="7" t="s">
         <v>281</v>
       </c>
@@ -14217,6 +14217,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="J30:J36"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B38:B48"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B10:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="J38:J47"/>
     <mergeCell ref="D45:D48"/>
     <mergeCell ref="D19:D21"/>
@@ -14233,33 +14260,6 @@
     <mergeCell ref="J18:J23"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="C25:C29"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B38:B48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="J30:J36"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14287,7 +14287,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>282</v>
       </c>
       <c r="D1" s="52"/>
@@ -14297,7 +14297,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>283</v>
       </c>
       <c r="D2" s="52"/>
@@ -14310,15 +14310,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>284</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -14346,38 +14346,38 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
-      <c r="D9" s="46"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="52"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
@@ -14386,10 +14386,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="13" t="s">
@@ -14414,7 +14414,7 @@
     <row r="11" spans="2:10" ht="30" customHeight="1">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="27" t="s">
         <v>288</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -14431,7 +14431,7 @@
     <row r="12" spans="2:10">
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
-      <c r="D12" s="46"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="7" t="s">
         <v>290</v>
       </c>
@@ -14446,7 +14446,7 @@
     <row r="13" spans="2:10" ht="30.75">
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
-      <c r="D13" s="46"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="7" t="s">
         <v>291</v>
       </c>
@@ -14461,7 +14461,7 @@
     <row r="14" spans="2:10" ht="21.75" customHeight="1">
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="46"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="7" t="s">
         <v>292</v>
       </c>
@@ -14476,7 +14476,7 @@
     <row r="15" spans="2:10" ht="30" customHeight="1">
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
-      <c r="D15" s="46"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="7" t="s">
         <v>293</v>
       </c>
@@ -14508,7 +14508,7 @@
     <row r="17" spans="2:10" ht="30.75">
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="49" t="s">
         <v>295</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -14525,7 +14525,7 @@
     <row r="18" spans="2:10">
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
-      <c r="D18" s="46"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="7" t="s">
         <v>297</v>
       </c>
@@ -14540,7 +14540,7 @@
     <row r="19" spans="2:10">
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
-      <c r="D19" s="46"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="7" t="s">
         <v>298</v>
       </c>
@@ -14555,7 +14555,7 @@
     <row r="20" spans="2:10" ht="30.75">
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
-      <c r="D20" s="46"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="7" t="s">
         <v>299</v>
       </c>
@@ -14574,13 +14574,13 @@
     <row r="21" spans="2:10">
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
-      <c r="D21" s="46"/>
+      <c r="D21" s="50"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="26">
         <v>20</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -14605,7 +14605,7 @@
     <row r="23" spans="2:10" ht="30.75">
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="27" t="s">
         <v>301</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -14622,7 +14622,7 @@
     <row r="24" spans="2:10">
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
-      <c r="D24" s="46"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="7" t="s">
         <v>303</v>
       </c>
@@ -14637,7 +14637,7 @@
     <row r="25" spans="2:10" ht="30.75">
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
-      <c r="D25" s="46"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="7" t="s">
         <v>304</v>
       </c>
@@ -14652,7 +14652,7 @@
     <row r="26" spans="2:10" ht="30.75">
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="46"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="7" t="s">
         <v>305</v>
       </c>
@@ -14684,7 +14684,7 @@
     <row r="28" spans="2:10" ht="25.5" customHeight="1">
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="27" t="s">
         <v>295</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -14701,7 +14701,7 @@
     <row r="29" spans="2:10" ht="30.75">
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="7" t="s">
         <v>308</v>
       </c>
@@ -14716,7 +14716,7 @@
     <row r="30" spans="2:10">
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="46"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="7" t="s">
         <v>309</v>
       </c>
@@ -14735,13 +14735,13 @@
     <row r="31" spans="2:10">
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="46"/>
+      <c r="D31" s="50"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="26">
         <v>5</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -14766,7 +14766,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="27" t="s">
         <v>311</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -14783,7 +14783,7 @@
     <row r="34" spans="2:10" ht="30.75">
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="46"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="7" t="s">
         <v>313</v>
       </c>
@@ -14798,7 +14798,7 @@
     <row r="35" spans="2:10" ht="21.75" customHeight="1">
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
-      <c r="D35" s="46"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="7" t="s">
         <v>314</v>
       </c>
@@ -14813,7 +14813,7 @@
     <row r="36" spans="2:10" ht="27.75" customHeight="1">
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
-      <c r="D36" s="46"/>
+      <c r="D36" s="50"/>
       <c r="E36" s="7" t="s">
         <v>315</v>
       </c>
@@ -14845,7 +14845,7 @@
     <row r="38" spans="2:10">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="27" t="s">
         <v>295</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -14862,7 +14862,7 @@
     <row r="39" spans="2:10">
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="46"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="7" t="s">
         <v>318</v>
       </c>
@@ -14877,7 +14877,7 @@
     <row r="40" spans="2:10">
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
-      <c r="D40" s="46"/>
+      <c r="D40" s="50"/>
       <c r="E40" s="7" t="s">
         <v>319</v>
       </c>
@@ -14896,13 +14896,13 @@
     <row r="41" spans="2:10">
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
-      <c r="D41" s="46"/>
+      <c r="D41" s="50"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="26">
         <v>25</v>
       </c>
       <c r="D42" s="13" t="s">
@@ -14927,7 +14927,7 @@
     <row r="43" spans="2:10" ht="30.75">
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="27" t="s">
         <v>311</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -14944,7 +14944,7 @@
     <row r="44" spans="2:10" ht="30.75">
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
-      <c r="D44" s="46"/>
+      <c r="D44" s="50"/>
       <c r="E44" s="7" t="s">
         <v>322</v>
       </c>
@@ -14959,7 +14959,7 @@
     <row r="45" spans="2:10" ht="30.75">
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
-      <c r="D45" s="46"/>
+      <c r="D45" s="50"/>
       <c r="E45" s="7" t="s">
         <v>323</v>
       </c>
@@ -14974,7 +14974,7 @@
     <row r="46" spans="2:10">
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
-      <c r="D46" s="46"/>
+      <c r="D46" s="50"/>
       <c r="E46" s="7" t="s">
         <v>324</v>
       </c>
@@ -15006,7 +15006,7 @@
     <row r="48" spans="2:10">
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="27" t="s">
         <v>295</v>
       </c>
       <c r="E48" s="7" t="s">
@@ -15023,7 +15023,7 @@
     <row r="49" spans="2:10">
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
-      <c r="D49" s="46"/>
+      <c r="D49" s="50"/>
       <c r="E49" s="7" t="s">
         <v>327</v>
       </c>
@@ -15042,13 +15042,13 @@
     <row r="50" spans="2:10">
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
-      <c r="D50" s="46"/>
+      <c r="D50" s="50"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="26">
         <v>5</v>
       </c>
       <c r="D51" s="13" t="s">
@@ -15073,7 +15073,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="52"/>
       <c r="C52" s="52"/>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="27" t="s">
         <v>329</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -15090,7 +15090,7 @@
     <row r="53" spans="2:10" ht="25.5" customHeight="1">
       <c r="B53" s="52"/>
       <c r="C53" s="52"/>
-      <c r="D53" s="46"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="7" t="s">
         <v>331</v>
       </c>
@@ -15105,7 +15105,7 @@
     <row r="54" spans="2:10">
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
-      <c r="D54" s="46"/>
+      <c r="D54" s="50"/>
       <c r="E54" s="7" t="s">
         <v>332</v>
       </c>
@@ -15141,7 +15141,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="27" t="s">
         <v>295</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -15158,7 +15158,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
-      <c r="D57" s="46"/>
+      <c r="D57" s="50"/>
       <c r="E57" s="7" t="s">
         <v>335</v>
       </c>
@@ -15173,13 +15173,13 @@
     <row r="58" spans="2:10">
       <c r="B58" s="52"/>
       <c r="C58" s="52"/>
-      <c r="D58" s="46"/>
+      <c r="D58" s="50"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="26">
         <v>15</v>
       </c>
       <c r="D59" s="13" t="s">
@@ -15204,7 +15204,7 @@
     <row r="60" spans="2:10">
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="27" t="s">
         <v>337</v>
       </c>
       <c r="E60" s="7" t="s">
@@ -15221,7 +15221,7 @@
     <row r="61" spans="2:10" ht="30.75">
       <c r="B61" s="52"/>
       <c r="C61" s="52"/>
-      <c r="D61" s="46"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="7" t="s">
         <v>339</v>
       </c>
@@ -15236,7 +15236,7 @@
     <row r="62" spans="2:10" ht="30.75">
       <c r="B62" s="52"/>
       <c r="C62" s="52"/>
-      <c r="D62" s="46"/>
+      <c r="D62" s="50"/>
       <c r="E62" s="7" t="s">
         <v>340</v>
       </c>
@@ -15271,7 +15271,7 @@
     <row r="64" spans="2:10" ht="45.75">
       <c r="B64" s="52"/>
       <c r="C64" s="52"/>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="27" t="s">
         <v>295</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -15288,7 +15288,7 @@
     <row r="65" spans="2:10" ht="30.75">
       <c r="B65" s="52"/>
       <c r="C65" s="52"/>
-      <c r="D65" s="46"/>
+      <c r="D65" s="50"/>
       <c r="E65" s="7" t="s">
         <v>343</v>
       </c>
@@ -15303,13 +15303,13 @@
     <row r="66" spans="2:10">
       <c r="B66" s="52"/>
       <c r="C66" s="52"/>
-      <c r="D66" s="46"/>
+      <c r="D66" s="50"/>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="C67" s="29">
+      <c r="C67" s="26">
         <v>15</v>
       </c>
       <c r="D67" s="13" t="s">
@@ -15334,7 +15334,7 @@
     <row r="68" spans="2:10">
       <c r="B68" s="52"/>
       <c r="C68" s="52"/>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="27" t="s">
         <v>345</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -15351,7 +15351,7 @@
     <row r="69" spans="2:10">
       <c r="B69" s="52"/>
       <c r="C69" s="52"/>
-      <c r="D69" s="46"/>
+      <c r="D69" s="50"/>
       <c r="E69" s="7" t="s">
         <v>347</v>
       </c>
@@ -15366,7 +15366,7 @@
     <row r="70" spans="2:10">
       <c r="B70" s="52"/>
       <c r="C70" s="52"/>
-      <c r="D70" s="46"/>
+      <c r="D70" s="50"/>
       <c r="E70" s="7" t="s">
         <v>348</v>
       </c>
@@ -15381,7 +15381,7 @@
     <row r="71" spans="2:10" ht="30.75">
       <c r="B71" s="52"/>
       <c r="C71" s="52"/>
-      <c r="D71" s="46"/>
+      <c r="D71" s="50"/>
       <c r="E71" s="7" t="s">
         <v>349</v>
       </c>
@@ -15413,7 +15413,7 @@
     <row r="73" spans="2:10" ht="30.75">
       <c r="B73" s="52"/>
       <c r="C73" s="52"/>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="27" t="s">
         <v>295</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -15430,7 +15430,7 @@
     <row r="74" spans="2:10">
       <c r="B74" s="52"/>
       <c r="C74" s="52"/>
-      <c r="D74" s="46"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="7" t="s">
         <v>352</v>
       </c>
@@ -15448,13 +15448,13 @@
     <row r="75" spans="2:10">
       <c r="B75" s="52"/>
       <c r="C75" s="52"/>
-      <c r="D75" s="46"/>
+      <c r="D75" s="50"/>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="C76" s="29">
+      <c r="C76" s="26">
         <v>5</v>
       </c>
       <c r="D76" s="13" t="s">
@@ -15479,7 +15479,7 @@
     <row r="77" spans="2:10" ht="30.75">
       <c r="B77" s="52"/>
       <c r="C77" s="52"/>
-      <c r="D77" s="33" t="s">
+      <c r="D77" s="27" t="s">
         <v>354</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -15496,7 +15496,7 @@
     <row r="78" spans="2:10">
       <c r="B78" s="52"/>
       <c r="C78" s="52"/>
-      <c r="D78" s="46"/>
+      <c r="D78" s="50"/>
       <c r="E78" s="7" t="s">
         <v>356</v>
       </c>
@@ -15511,7 +15511,7 @@
     <row r="79" spans="2:10" ht="30.75">
       <c r="B79" s="52"/>
       <c r="C79" s="52"/>
-      <c r="D79" s="46"/>
+      <c r="D79" s="50"/>
       <c r="E79" s="7" t="s">
         <v>357</v>
       </c>
@@ -15526,7 +15526,7 @@
     <row r="80" spans="2:10" ht="60.75">
       <c r="B80" s="52"/>
       <c r="C80" s="52"/>
-      <c r="D80" s="46"/>
+      <c r="D80" s="50"/>
       <c r="E80" s="7" t="s">
         <v>358</v>
       </c>
@@ -15558,7 +15558,7 @@
     <row r="82" spans="2:10">
       <c r="B82" s="52"/>
       <c r="C82" s="52"/>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="27" t="s">
         <v>295</v>
       </c>
       <c r="E82" s="7" t="s">
@@ -15575,7 +15575,7 @@
     <row r="83" spans="2:10">
       <c r="B83" s="52"/>
       <c r="C83" s="52"/>
-      <c r="D83" s="46"/>
+      <c r="D83" s="50"/>
       <c r="E83" s="7" t="s">
         <v>361</v>
       </c>
@@ -15593,7 +15593,7 @@
     <row r="84" spans="2:10" ht="30.75">
       <c r="B84" s="52"/>
       <c r="C84" s="52"/>
-      <c r="D84" s="46"/>
+      <c r="D84" s="50"/>
       <c r="E84" s="7" t="s">
         <v>362</v>
       </c>
@@ -15608,25 +15608,33 @@
     <row r="85" spans="2:10">
       <c r="B85" s="52"/>
       <c r="C85" s="52"/>
-      <c r="D85" s="46"/>
+      <c r="D85" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C76:C85"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="J59:J65"/>
-    <mergeCell ref="J10:J20"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="J51:J57"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="B67:B75"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="J42:J49"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C10:C21"/>
+    <mergeCell ref="C22:C31"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D23:D26"/>
     <mergeCell ref="B76:B85"/>
     <mergeCell ref="J67:J74"/>
     <mergeCell ref="D77:D80"/>
@@ -15643,29 +15651,21 @@
     <mergeCell ref="C67:C75"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="J76:J84"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="J42:J49"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C10:C21"/>
-    <mergeCell ref="C22:C31"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="C76:C85"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="J59:J65"/>
+    <mergeCell ref="J10:J20"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="J51:J57"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15692,7 +15692,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>363</v>
       </c>
       <c r="D1" s="52"/>
@@ -15702,7 +15702,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>364</v>
       </c>
       <c r="D2" s="52"/>
@@ -15715,15 +15715,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>365</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -15751,31 +15751,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15791,10 +15791,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -15820,7 +15820,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>369</v>
       </c>
@@ -15903,7 +15903,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
-      <c r="D16" s="31"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="7" t="s">
         <v>374</v>
       </c>
@@ -15942,10 +15942,10 @@
       <c r="D18" s="52"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="26">
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -15971,7 +15971,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
-      <c r="D20" s="31"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="7" t="s">
         <v>377</v>
       </c>
@@ -16066,7 +16066,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="31"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="7" t="s">
         <v>383</v>
       </c>
@@ -16141,10 +16141,10 @@
       <c r="D30" s="52"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="27" t="s">
         <v>387</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="26">
         <v>35</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -16170,7 +16170,7 @@
     <row r="32" spans="2:10">
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
-      <c r="D32" s="31"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="7" t="s">
         <v>388</v>
       </c>
@@ -16250,7 +16250,7 @@
     <row r="37" spans="2:10">
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
-      <c r="D37" s="31"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="7" t="s">
         <v>393</v>
       </c>
@@ -16307,10 +16307,10 @@
       <c r="D40" s="52"/>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="26">
         <v>30</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -16336,7 +16336,7 @@
     <row r="42" spans="2:10">
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
-      <c r="D42" s="31"/>
+      <c r="D42" s="28"/>
       <c r="E42" s="7" t="s">
         <v>397</v>
       </c>
@@ -16428,7 +16428,7 @@
     <row r="48" spans="2:10">
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="7" t="s">
         <v>403</v>
       </c>
@@ -16476,10 +16476,10 @@
       <c r="D51" s="52"/>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="26">
         <v>10</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -16505,7 +16505,7 @@
     <row r="53" spans="2:10">
       <c r="B53" s="52"/>
       <c r="C53" s="52"/>
-      <c r="D53" s="31"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="7" t="s">
         <v>407</v>
       </c>
@@ -16582,7 +16582,7 @@
     <row r="58" spans="2:10">
       <c r="B58" s="52"/>
       <c r="C58" s="52"/>
-      <c r="D58" s="31"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="7" t="s">
         <v>412</v>
       </c>
@@ -16616,29 +16616,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B41:B51"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J41:J50"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="J19:J29"/>
-    <mergeCell ref="B19:B30"/>
-    <mergeCell ref="C10:C18"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J10:J17"/>
-    <mergeCell ref="J31:J39"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="C41:C51"/>
     <mergeCell ref="B52:B60"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="J52:J59"/>
@@ -16655,6 +16632,29 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="C19:C30"/>
     <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="B41:B51"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J41:J50"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="J19:J29"/>
+    <mergeCell ref="B19:B30"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J10:J17"/>
+    <mergeCell ref="J31:J39"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16681,7 +16681,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>414</v>
       </c>
       <c r="D1" s="52"/>
@@ -16691,7 +16691,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>415</v>
       </c>
       <c r="D2" s="52"/>
@@ -16704,15 +16704,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>284</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -16740,31 +16740,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -16780,10 +16780,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -16808,7 +16808,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>419</v>
       </c>
@@ -16882,7 +16882,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
-      <c r="D17" s="31"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="7" t="s">
         <v>425</v>
       </c>
@@ -16921,10 +16921,10 @@
       <c r="D20" s="52"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -16949,7 +16949,7 @@
     <row r="22" spans="2:10">
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="7" t="s">
         <v>429</v>
       </c>
@@ -16999,7 +16999,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="31"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="7" t="s">
         <v>433</v>
       </c>
@@ -17026,10 +17026,10 @@
       <c r="D28" s="52"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="26">
         <v>20</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -17054,7 +17054,7 @@
     <row r="30" spans="2:10">
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="31"/>
+      <c r="D30" s="28"/>
       <c r="E30" s="7" t="s">
         <v>429</v>
       </c>
@@ -17116,7 +17116,7 @@
     <row r="35" spans="2:10" ht="30">
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
-      <c r="D35" s="31"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="7" t="s">
         <v>440</v>
       </c>
@@ -17155,10 +17155,10 @@
       <c r="D38" s="52"/>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="26">
         <v>20</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -17183,7 +17183,7 @@
     <row r="40" spans="2:10">
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
-      <c r="D40" s="31"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="7" t="s">
         <v>444</v>
       </c>
@@ -17245,7 +17245,7 @@
     <row r="45" spans="2:10">
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
-      <c r="D45" s="31"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="7" t="s">
         <v>449</v>
       </c>
@@ -17284,10 +17284,10 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="26">
         <v>10</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -17312,7 +17312,7 @@
     <row r="50" spans="2:10">
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
-      <c r="D50" s="31"/>
+      <c r="D50" s="28"/>
       <c r="E50" s="7" t="s">
         <v>453</v>
       </c>
@@ -17362,7 +17362,7 @@
     <row r="54" spans="2:10">
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="28"/>
       <c r="E54" s="7" t="s">
         <v>457</v>
       </c>
@@ -17377,10 +17377,10 @@
       <c r="D55" s="52"/>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="26">
         <v>5</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -17405,7 +17405,7 @@
     <row r="57" spans="2:10">
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
-      <c r="D57" s="31"/>
+      <c r="D57" s="28"/>
       <c r="E57" s="7" t="s">
         <v>459</v>
       </c>
@@ -17455,7 +17455,7 @@
     <row r="61" spans="2:10">
       <c r="B61" s="52"/>
       <c r="C61" s="52"/>
-      <c r="D61" s="31"/>
+      <c r="D61" s="28"/>
       <c r="E61" s="7" t="s">
         <v>463</v>
       </c>
@@ -17470,10 +17470,10 @@
       <c r="D62" s="52"/>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="C63" s="29">
+      <c r="C63" s="26">
         <v>5</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -17498,7 +17498,7 @@
     <row r="64" spans="2:10">
       <c r="B64" s="52"/>
       <c r="C64" s="52"/>
-      <c r="D64" s="31"/>
+      <c r="D64" s="28"/>
       <c r="E64" s="7" t="s">
         <v>465</v>
       </c>
@@ -17548,7 +17548,7 @@
     <row r="68" spans="2:10">
       <c r="B68" s="52"/>
       <c r="C68" s="52"/>
-      <c r="D68" s="31"/>
+      <c r="D68" s="28"/>
       <c r="E68" s="7" t="s">
         <v>469</v>
       </c>
@@ -17575,10 +17575,10 @@
       <c r="D70" s="52"/>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="C71" s="29">
+      <c r="C71" s="26">
         <v>5</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -17603,7 +17603,7 @@
     <row r="72" spans="2:10">
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
-      <c r="D72" s="31"/>
+      <c r="D72" s="28"/>
       <c r="E72" s="7" t="s">
         <v>472</v>
       </c>
@@ -17665,7 +17665,7 @@
     <row r="77" spans="2:10" ht="30">
       <c r="B77" s="52"/>
       <c r="C77" s="52"/>
-      <c r="D77" s="31"/>
+      <c r="D77" s="28"/>
       <c r="E77" s="7" t="s">
         <v>477</v>
       </c>
@@ -17692,10 +17692,10 @@
       <c r="D79" s="52"/>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="33" t="s">
+      <c r="B80" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="C80" s="29">
+      <c r="C80" s="26">
         <v>5</v>
       </c>
       <c r="D80" s="4" t="s">
@@ -17720,7 +17720,7 @@
     <row r="81" spans="2:10">
       <c r="B81" s="52"/>
       <c r="C81" s="52"/>
-      <c r="D81" s="31"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="7" t="s">
         <v>480</v>
       </c>
@@ -17782,7 +17782,7 @@
     <row r="86" spans="2:10" ht="30">
       <c r="B86" s="52"/>
       <c r="C86" s="52"/>
-      <c r="D86" s="31"/>
+      <c r="D86" s="28"/>
       <c r="E86" s="7" t="s">
         <v>485</v>
       </c>
@@ -17825,6 +17825,49 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C56:C62"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="J80:J88"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="C71:C79"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="C63:C70"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="J49:J54"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="D30:D33"/>
     <mergeCell ref="B80:B89"/>
     <mergeCell ref="J71:J78"/>
     <mergeCell ref="C39:C48"/>
@@ -17841,49 +17884,6 @@
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="J56:J61"/>
     <mergeCell ref="J63:J69"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="C63:C70"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="J49:J54"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="J80:J88"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="C71:C79"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="C49:C55"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17910,7 +17910,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>488</v>
       </c>
       <c r="D1" s="52"/>
@@ -17920,7 +17920,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>489</v>
       </c>
       <c r="D2" s="52"/>
@@ -17933,15 +17933,15 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>490</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -17969,31 +17969,31 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -18009,10 +18009,10 @@
       <c r="J9" s="52"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -18038,7 +18038,7 @@
     <row r="11" spans="2:10">
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>494</v>
       </c>
@@ -18112,7 +18112,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
-      <c r="D17" s="31"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="7" t="s">
         <v>500</v>
       </c>
@@ -18151,10 +18151,10 @@
       <c r="D20" s="52"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>24</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -18180,7 +18180,7 @@
     <row r="22" spans="2:10">
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="7" t="s">
         <v>504</v>
       </c>
@@ -18254,7 +18254,7 @@
     <row r="28" spans="2:10">
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
-      <c r="D28" s="31"/>
+      <c r="D28" s="28"/>
       <c r="E28" s="7" t="s">
         <v>510</v>
       </c>
@@ -18293,10 +18293,10 @@
       <c r="D31" s="52"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="26">
         <v>24</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -18322,7 +18322,7 @@
     <row r="33" spans="2:10">
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="31"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="7" t="s">
         <v>514</v>
       </c>
@@ -18384,7 +18384,7 @@
     <row r="38" spans="2:10">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
-      <c r="D38" s="31"/>
+      <c r="D38" s="28"/>
       <c r="E38" s="7" t="s">
         <v>519</v>
       </c>
@@ -18423,10 +18423,10 @@
       <c r="D41" s="52"/>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="27" t="s">
         <v>522</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="26">
         <v>16</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -18452,7 +18452,7 @@
     <row r="43" spans="2:10">
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
-      <c r="D43" s="31"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="7" t="s">
         <v>523</v>
       </c>
@@ -18514,7 +18514,7 @@
     <row r="48" spans="2:10" ht="30">
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="28"/>
       <c r="E48" s="7" t="s">
         <v>528</v>
       </c>
@@ -18541,10 +18541,10 @@
       <c r="D50" s="52"/>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="26">
         <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -18570,7 +18570,7 @@
     <row r="52" spans="2:10">
       <c r="B52" s="52"/>
       <c r="C52" s="52"/>
-      <c r="D52" s="31"/>
+      <c r="D52" s="28"/>
       <c r="E52" s="7" t="s">
         <v>531</v>
       </c>
@@ -18620,7 +18620,7 @@
     <row r="56" spans="2:10">
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
-      <c r="D56" s="31"/>
+      <c r="D56" s="28"/>
       <c r="E56" s="7" t="s">
         <v>535</v>
       </c>
@@ -18647,10 +18647,10 @@
       <c r="D58" s="52"/>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="27" t="s">
         <v>537</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="26">
         <v>16</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -18676,7 +18676,7 @@
     <row r="60" spans="2:10" ht="30">
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
-      <c r="D60" s="31"/>
+      <c r="D60" s="28"/>
       <c r="E60" s="7" t="s">
         <v>538</v>
       </c>
@@ -18750,7 +18750,7 @@
     <row r="66" spans="2:10">
       <c r="B66" s="52"/>
       <c r="C66" s="52"/>
-      <c r="D66" s="31"/>
+      <c r="D66" s="28"/>
       <c r="E66" s="7" t="s">
         <v>544</v>
       </c>
@@ -18790,6 +18790,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B51:B58"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="C42:C50"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="C21:C31"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J10:J19"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J21:J30"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C10:C20"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="B59:B69"/>
     <mergeCell ref="C32:C41"/>
     <mergeCell ref="J51:J57"/>
@@ -18806,40 +18834,21 @@
     <mergeCell ref="J42:J49"/>
     <mergeCell ref="B21:B31"/>
     <mergeCell ref="J32:J40"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J10:J19"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J21:J30"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="C21:C31"/>
-    <mergeCell ref="B51:B58"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B10:B20"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="C42:C50"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D11:D15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcacaf0f-47d6-4512-8755-33aa81f58d6d">
@@ -18849,18 +18858,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A5A555947EA08B4492B5A01D27630555" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="dd82ada882069ac16fe601160e97ab22">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fcacaf0f-47d6-4512-8755-33aa81f58d6d" xmlns:ns3="e86545fc-a686-4a97-98c8-7cf5c396f016" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9368a896100fd3a647c25a75e64d9ec" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A5A555947EA08B4492B5A01D27630555" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="aefc23d1fcd7657c59102621f2af9be9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fcacaf0f-47d6-4512-8755-33aa81f58d6d" xmlns:ns3="e86545fc-a686-4a97-98c8-7cf5c396f016" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="29ada23619a1ee36c99f0d192b4bcace" ns2:_="" ns3:_="">
     <xsd:import namespace="fcacaf0f-47d6-4512-8755-33aa81f58d6d"/>
     <xsd:import namespace="e86545fc-a686-4a97-98c8-7cf5c396f016"/>
     <xsd:element name="properties">
@@ -19082,13 +19082,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0F20A7-B073-4926-A2A7-11F8E7750EAE}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DDB5BF9-777F-445C-A1F4-5239356284F0}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F0F20A7-B073-4926-A2A7-11F8E7750EAE}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B49E444-8D40-4CFC-8E63-F2E04882FFC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EF175D7-B040-4FBA-AD0E-84E3850CD08D}"/>
 </file>